--- a/11.success_5modify.xlsx
+++ b/11.success_5modify.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fang.wang/Documents/1.OTR/2024/1014霜降-五星评价/主数据上传测试文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1284F1-AC8F-0448-A193-9E9A34ECDE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C8BE94-FAA5-7845-89D4-63EBAA05D70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="540" xr2:uid="{580DD971-E0EA-0E47-9A61-A5B5E681C54A}"/>
   </bookViews>
@@ -6896,13 +6896,13 @@
     </r>
   </si>
   <si>
-    <t>19.测试一下这是新的版本5</t>
-  </si>
-  <si>
-    <t>19.测试一下这是新的版本5-2</t>
-  </si>
-  <si>
-    <t>测试题目5555</t>
+    <t>19.测试一下这是新的版本5-2修改啦</t>
+  </si>
+  <si>
+    <t>19.测试一下这是新的版本5修改啦</t>
+  </si>
+  <si>
+    <t>测试题目5555修改啦</t>
   </si>
 </sst>
 </file>
@@ -7920,8 +7920,8 @@
   <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="144" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -9264,7 +9264,7 @@
         <v>225</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G34" s="43" t="s">
         <v>330</v>
@@ -10453,7 +10453,7 @@
         <v>225</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G67" s="43" t="s">
         <v>330</v>
